--- a/biology/Médecine/Grande_aile_de_l'os_sphénoïde/Grande_aile_de_l'os_sphénoïde.xlsx
+++ b/biology/Médecine/Grande_aile_de_l'os_sphénoïde/Grande_aile_de_l'os_sphénoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grandes ailes de l'os sphénoïde[1] (ou grande aile du sphénoïde ou anciennement aile temporale du sphénoïde ou aile postsphénoïdale) sont deux processus osseux latéraux de l'os sphénoïde situées à l'arrière du corps du sphénoïde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grandes ailes de l'os sphénoïde (ou grande aile du sphénoïde ou anciennement aile temporale du sphénoïde ou aile postsphénoïdale) sont deux processus osseux latéraux de l'os sphénoïde situées à l'arrière du corps du sphénoïde.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grandes ailes du sphénoïde sont deux solides processus osseux, qui naissent des côtés du corps du sphénoïde et sont incurvés vers le haut, latéralement et vers l'arrière.
 Leur partie postérieure se projette comme un processus triangulaire qui s'insère dans l'angle entre l'écaille de l'os temporal et sa partie pétreuse
@@ -530,90 +544,510 @@
 le bord postérieur,
 le bord médial.
 L'ensemble des deux faces temporale et infratemporale constitue la face temporo-zygomatique de la grande aile de l'os sphénoïde.
-Face endocrânienne
-La face endocrânienne de chaque grande aile fait partie de la fosse crânienne moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face endocrânienne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La face endocrânienne de chaque grande aile fait partie de la fosse crânienne moyenne.
 Elle est profondément concave et présente des dépressions pour les circonvolutions du lobe temporal du cerveau. Elle est également marquée par un sillon pour l'artère méningée moyenne.
 Elle présente plusieurs foramens prés de la base :
 Le foramen rond, à l'avant entre les racines antérieure et moyenne de la grande aile, permet le passage du nerf maxillaire vers la fosse ptérygo-palatine..
 Le foramen ovale, derrière ce dernier et entre les racines moyenne et postérieure de la grande aile, permet le passage du nerf mandibulaire et de l'artère ptérygoméningée.
 Le foramen veineux ou trou de Vésale est parfois présent. C'est une petite ouverture en dedans du foramen ovale, en face de la racine du processus ptérygoïde. Il permet le passage d'une petite veine du sinus caverneux.
 Le foramen épineux se trouve dans l'angle postérieur, près et devant l'épine de l'os sphénoïde et latéro-postérieur au foramen ovale ; c'est un canal court qui permet le passage des vaisseaux méningés moyens et du rameau méningé du nerf mandibulaire.
-Le foramen pétreux ou trou d'Arnold est inconstant entre le foramen épineux et le foramen ovale Il permet le passage du nerf petit pétreux.
-Face  exocrânienne
-Face orbitaire
-La face orbitaire de la grande aile est lisse et de forme triangulaire. Elle est dirigée vers l'avant et médialement et forme la partie postérieure de la paroi latérale de l'orbite. 
+Le foramen pétreux ou trou d'Arnold est inconstant entre le foramen épineux et le foramen ovale Il permet le passage du nerf petit pétreux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face  exocrânienne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Face orbitaire</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face orbitaire de la grande aile est lisse et de forme triangulaire. Elle est dirigée vers l'avant et médialement et forme la partie postérieure de la paroi latérale de l'orbite. 
 Sa base est formée par le bord zygomatique de la grande aile articulé avec l'os zygomatique. Son bord supérieur forme la lèvre inférieure de la fissure orbitaire supérieure. Son bord inférieur est marqué par la crête orbitaire qui la sépare de la face maxillaire et forme la limite supérieure de la fissure orbitaire inférieure.
-Face temporale
-La face temporale orientée en dehors et en avant, forme la partie supérieure de la face temporo-zygomatique et la partie antérieure de la fosse temporale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Face  exocrânienne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Face temporale</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face temporale orientée en dehors et en avant, forme la partie supérieure de la face temporo-zygomatique et la partie antérieure de la fosse temporale.
 Elle est séparée de la face orbitaire par le bord zygomatique, et séparée de la face infratemporale par la crête infra-temporale.
 Elle s'articule à l'avant avec l'os zygomatique et l'os frontal et en arrière avec l'écaille de l'os temporal.
 Elle donne insertion au muscle temporal.
-Face infratemporale
-La face infratemporale forme la partie inférieure de la face temporo-zygomatique et constitue la partie supérieure de la fosse infratemporale. Elle est horizontale et orientée en bas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Face  exocrânienne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Face infratemporale</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face infratemporale forme la partie inférieure de la face temporo-zygomatique et constitue la partie supérieure de la fosse infratemporale. Elle est horizontale et orientée en bas.
 Elle est séparée en haut de la face temporale par la crête infra-temporale.
 Elle est en continuité avec la face externe du processus ptérygoïde.
 Elle présente le foramen ovale et le foramen épineux.
 C'est une zone d'insertion du muscle ptérygoïdien latéral et du fascia ptérygo-temporo-maxillaire.
-Face maxillaire
-La face maxillaire (ou face sphéno-maxillaire) est orientée en avant, en dedans et en bas. Elle est située entre la partie orbitaire en haut et le processus ptérygoïde en bas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Face  exocrânienne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Face maxillaire</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face maxillaire (ou face sphéno-maxillaire) est orientée en avant, en dedans et en bas. Elle est située entre la partie orbitaire en haut et le processus ptérygoïde en bas.
 Elle est séparée de la partie orbitaire par la crête orbitaire.
 Dans sa partie médiale, on trouve le foramen rond.
 Elle forme la partie supérieure de la fosse ptérygo-palatine.
-Bords
-Bord supérieur
-Le bord supérieur forme une surface articulaire en L.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bord supérieur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord supérieur forme une surface articulaire en L.
 Sa partie antérieure forme le bord frontal triangulaire s'articulant avec l'os frontal.
 Sa partie postérieure forme le bord pariétal qui s'articule avec l'angle sphénoïdal de l'os pariétal au niveau du ptérion.
 Il possède également une portion non articulaire formant la limite inférieure de la fissure orbitaire supérieure.
 Le bord pariétal peut être décrit également comme la partie supérieure du bord latéral.
-Bord postérieur
-Le bord postérieur s'étend de l'épine de l'os sphénoïde au corps de l'os sphénoïde. Il est irrégulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bord postérieur</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord postérieur s'étend de l'épine de l'os sphénoïde au corps de l'os sphénoïde. Il est irrégulier.
 Sa moitié médiale forme la limite antérieure du foramen déchiré et présente l'ouverture postérieure du canal ptérygoïdien pour le passage du nerf et de l'artère correspondants.
 Sa moitié latérale s'articule, au moyen d'une synchondrose, avec la partie pétreuse de l'os temporal.
 A son extrémité postérieure se trouve l'épine de l'os sphénoïde point d'insertion du muscle tenseur du voile du palais, au ligament sphéno-mandibulaire et au ligament ptérygo-épineux..
 A son extrémité antérieure se  présente la lingula sphénoïdale.
-Bord latéral
-Le bord latéral ou bord squameux s'articule avec l'écaille de l'os temporal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Bord latéral</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord latéral ou bord squameux s'articule avec l'écaille de l'os temporal.
 Cette partie est concave, dentelée et biseautée en interne dans sa portion horizontale et externe dans sa portion verticale. Entre ces deux portion se trouve le point sphéno-squameux.
 Dans la littérature, le bord pariétal décrit dans le bord supérieur peut être inclut comme la partie supérieure du bord latéral.
-Bord antérieur
-Le bord antérieur (ou bord zygomatique ou crête malaire du sphénoïde) sépare la face orbitaire de la face temporale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Bord antérieur</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord antérieur (ou bord zygomatique ou crête malaire du sphénoïde) sépare la face orbitaire de la face temporale.
 Il s'articule avec le processus frontal de l'os zygomatique.
-Bord médial
-Le bord médial correspond au racines de la grande aile : les racines antérieure, moyenne et postérieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bords</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Bord médial</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord médial correspond au racines de la grande aile : les racines antérieure, moyenne et postérieure.
 Entre la racine antérieure et la racine moyenne se trouve le foramen rond.
 Entre la racine moyenne et la racine postérieure se trouve le foramen ovale.
-Embryologie
-La grande aile de l'os sphénoïde se développe initialement comme  un os séparé et est toujours indépendant à la naissance chez l'homme.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Embryologie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grande aile de l'os sphénoïde se développe initialement comme  un os séparé et est toujours indépendant à la naissance chez l'homme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Grande_aile_de_l'os_sphénoïde</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_aile_de_l%27os_sph%C3%A9no%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez de nombreux mammifères, comme le chien, la grande aile de l'os sphénoïde reste un os séparé tout au long de la vie, dans ce cas on lui donne le nom d'alisphénoïde.
 </t>
